--- a/2021-3-20 FTSL0658/文件/658短路群.xlsx
+++ b/2021-3-20 FTSL0658/文件/658短路群.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\陈亮庚\项目\2021\2021-3-20 FTSL0658\文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\陈亮庚\项目\2021 - 副本\2021-3-20 FTSL0658\文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2CCADE-21B6-4E60-87E8-D05CD3C96DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CF984C-F957-4AE8-AA26-8716E31BF13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="点位" sheetId="1" r:id="rId1"/>
@@ -34,169 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="252">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>J201_</t>
-  </si>
-  <si>
-    <t>J202_</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="97">
   <si>
     <t>GND</t>
   </si>
@@ -221,318 +59,6 @@
   <si>
     <t>,</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"J201_1",</t>
-  </si>
-  <si>
-    <t>"J201_3",</t>
-  </si>
-  <si>
-    <t>"J201_5",</t>
-  </si>
-  <si>
-    <t>"J201_7",</t>
-  </si>
-  <si>
-    <t>"J201_9",</t>
-  </si>
-  <si>
-    <t>"J201_11",</t>
-  </si>
-  <si>
-    <t>"J201_13",</t>
-  </si>
-  <si>
-    <t>"J201_15",</t>
-  </si>
-  <si>
-    <t>"J201_17",</t>
-  </si>
-  <si>
-    <t>"J201_19",</t>
-  </si>
-  <si>
-    <t>"J201_21",</t>
-  </si>
-  <si>
-    <t>"J201_23",</t>
-  </si>
-  <si>
-    <t>"J201_25",</t>
-  </si>
-  <si>
-    <t>"J201_27",</t>
-  </si>
-  <si>
-    <t>"J201_29",</t>
-  </si>
-  <si>
-    <t>"J201_31",</t>
-  </si>
-  <si>
-    <t>"J201_33",</t>
-  </si>
-  <si>
-    <t>"J201_35",</t>
-  </si>
-  <si>
-    <t>"J201_37",</t>
-  </si>
-  <si>
-    <t>"J201_39",</t>
-  </si>
-  <si>
-    <t>"J201_41",</t>
-  </si>
-  <si>
-    <t>"J201_43",</t>
-  </si>
-  <si>
-    <t>"J201_45",</t>
-  </si>
-  <si>
-    <t>"J201_47",</t>
-  </si>
-  <si>
-    <t>"J201_49",</t>
-  </si>
-  <si>
-    <t>"J201_51",</t>
-  </si>
-  <si>
-    <t>"J201_2",</t>
-  </si>
-  <si>
-    <t>"J201_4",</t>
-  </si>
-  <si>
-    <t>"J201_6",</t>
-  </si>
-  <si>
-    <t>"J201_8",</t>
-  </si>
-  <si>
-    <t>"J201_10",</t>
-  </si>
-  <si>
-    <t>"J201_12",</t>
-  </si>
-  <si>
-    <t>"J201_14",</t>
-  </si>
-  <si>
-    <t>"J201_16",</t>
-  </si>
-  <si>
-    <t>"J201_18",</t>
-  </si>
-  <si>
-    <t>"J201_20",</t>
-  </si>
-  <si>
-    <t>"J201_22",</t>
-  </si>
-  <si>
-    <t>"J201_24",</t>
-  </si>
-  <si>
-    <t>"J201_26",</t>
-  </si>
-  <si>
-    <t>"J201_28",</t>
-  </si>
-  <si>
-    <t>"J201_30",</t>
-  </si>
-  <si>
-    <t>"J201_32",</t>
-  </si>
-  <si>
-    <t>"J201_34",</t>
-  </si>
-  <si>
-    <t>"J201_36",</t>
-  </si>
-  <si>
-    <t>"J201_38",</t>
-  </si>
-  <si>
-    <t>"J201_40",</t>
-  </si>
-  <si>
-    <t>"J201_42",</t>
-  </si>
-  <si>
-    <t>"J201_44",</t>
-  </si>
-  <si>
-    <t>"J201_46",</t>
-  </si>
-  <si>
-    <t>"J201_48",</t>
-  </si>
-  <si>
-    <t>"J201_50",</t>
-  </si>
-  <si>
-    <t>"J201_52",</t>
-  </si>
-  <si>
-    <t>"J202_2",</t>
-  </si>
-  <si>
-    <t>"J202_4",</t>
-  </si>
-  <si>
-    <t>"J202_6",</t>
-  </si>
-  <si>
-    <t>"J202_8",</t>
-  </si>
-  <si>
-    <t>"J202_10",</t>
-  </si>
-  <si>
-    <t>"J202_12",</t>
-  </si>
-  <si>
-    <t>"J202_14",</t>
-  </si>
-  <si>
-    <t>"J202_16",</t>
-  </si>
-  <si>
-    <t>"J202_18",</t>
-  </si>
-  <si>
-    <t>"J202_20",</t>
-  </si>
-  <si>
-    <t>"J202_22",</t>
-  </si>
-  <si>
-    <t>"J202_24",</t>
-  </si>
-  <si>
-    <t>"J202_26",</t>
-  </si>
-  <si>
-    <t>"J202_28",</t>
-  </si>
-  <si>
-    <t>"J202_30",</t>
-  </si>
-  <si>
-    <t>"J202_32",</t>
-  </si>
-  <si>
-    <t>"J202_34",</t>
-  </si>
-  <si>
-    <t>"J202_36",</t>
-  </si>
-  <si>
-    <t>"J202_38",</t>
-  </si>
-  <si>
-    <t>"J202_40",</t>
-  </si>
-  <si>
-    <t>"J202_42",</t>
-  </si>
-  <si>
-    <t>"J202_44",</t>
-  </si>
-  <si>
-    <t>"J202_46",</t>
-  </si>
-  <si>
-    <t>"J202_48",</t>
-  </si>
-  <si>
-    <t>"J202_50",</t>
-  </si>
-  <si>
-    <t>"J202_52",</t>
-  </si>
-  <si>
-    <t>"J202_1",</t>
-  </si>
-  <si>
-    <t>"J202_3",</t>
-  </si>
-  <si>
-    <t>"J202_5",</t>
-  </si>
-  <si>
-    <t>"J202_7",</t>
-  </si>
-  <si>
-    <t>"J202_9",</t>
-  </si>
-  <si>
-    <t>"J202_11",</t>
-  </si>
-  <si>
-    <t>"J202_13",</t>
-  </si>
-  <si>
-    <t>"J202_15",</t>
-  </si>
-  <si>
-    <t>"J202_17",</t>
-  </si>
-  <si>
-    <t>"J202_19",</t>
-  </si>
-  <si>
-    <t>"J202_21",</t>
-  </si>
-  <si>
-    <t>"J202_23",</t>
-  </si>
-  <si>
-    <t>"J202_25",</t>
-  </si>
-  <si>
-    <t>"J202_27",</t>
-  </si>
-  <si>
-    <t>"J202_29",</t>
-  </si>
-  <si>
-    <t>"J202_31",</t>
-  </si>
-  <si>
-    <t>"J202_33",</t>
-  </si>
-  <si>
-    <t>"J202_35",</t>
-  </si>
-  <si>
-    <t>"J202_37",</t>
-  </si>
-  <si>
-    <t>"J202_39",</t>
-  </si>
-  <si>
-    <t>"J202_41",</t>
-  </si>
-  <si>
-    <t>"J202_43",</t>
-  </si>
-  <si>
-    <t>"J202_45",</t>
-  </si>
-  <si>
-    <t>"J202_47",</t>
-  </si>
-  <si>
-    <t>"J202_49",</t>
-  </si>
-  <si>
-    <t>"J202_51",</t>
   </si>
   <si>
     <t>J1103</t>
@@ -803,6 +329,18 @@
   </si>
   <si>
     <t>悬空 计数</t>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1224,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:G141"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1238,13 +776,13 @@
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
@@ -1252,10 +790,10 @@
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1267,10 +805,10 @@
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1282,10 +820,10 @@
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -1297,10 +835,10 @@
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -1312,10 +850,10 @@
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -1327,10 +865,10 @@
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>12</v>
@@ -1342,10 +880,10 @@
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>14</v>
@@ -1357,10 +895,10 @@
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>16</v>
@@ -1372,10 +910,10 @@
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>18</v>
@@ -1387,10 +925,10 @@
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1402,10 +940,10 @@
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>22</v>
@@ -1417,10 +955,10 @@
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>24</v>
@@ -1432,10 +970,10 @@
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>26</v>
@@ -1447,10 +985,10 @@
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>28</v>
@@ -1462,10 +1000,10 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -1477,10 +1015,10 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>32</v>
@@ -1492,10 +1030,10 @@
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>34</v>
@@ -1507,10 +1045,10 @@
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>36</v>
@@ -1522,10 +1060,10 @@
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>38</v>
@@ -1537,10 +1075,10 @@
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>40</v>
@@ -1552,10 +1090,10 @@
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>43</v>
@@ -1566,10 +1104,10 @@
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>44</v>
@@ -1580,10 +1118,10 @@
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2">
         <v>46</v>
@@ -1598,10 +1136,10 @@
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1613,10 +1151,10 @@
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1628,10 +1166,10 @@
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -1643,10 +1181,10 @@
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>7</v>
@@ -1658,10 +1196,10 @@
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>9</v>
@@ -1673,10 +1211,10 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>11</v>
@@ -1688,10 +1226,10 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>13</v>
@@ -1703,10 +1241,10 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>15</v>
@@ -1718,10 +1256,10 @@
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>17</v>
@@ -1733,10 +1271,10 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>19</v>
@@ -1748,10 +1286,10 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>21</v>
@@ -1763,10 +1301,10 @@
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>23</v>
@@ -1778,10 +1316,10 @@
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>25</v>
@@ -1793,10 +1331,10 @@
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>27</v>
@@ -1808,10 +1346,10 @@
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>29</v>
@@ -1823,10 +1361,10 @@
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>31</v>
@@ -1838,10 +1376,10 @@
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>33</v>
@@ -1853,10 +1391,10 @@
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>35</v>
@@ -1868,10 +1406,10 @@
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>37</v>
@@ -1883,10 +1421,10 @@
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>39</v>
@@ -1898,10 +1436,10 @@
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E48">
         <v>41</v>
@@ -1913,10 +1451,10 @@
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>42</v>
@@ -1928,10 +1466,10 @@
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="E50">
         <v>45</v>
@@ -1948,10 +1486,10 @@
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G53" s="9"/>
     </row>
@@ -1960,10 +1498,10 @@
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -1975,10 +1513,10 @@
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -1990,10 +1528,10 @@
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -2005,10 +1543,10 @@
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E58">
         <v>8</v>
@@ -2020,10 +1558,10 @@
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E59">
         <v>10</v>
@@ -2035,10 +1573,10 @@
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E60">
         <v>12</v>
@@ -2050,10 +1588,10 @@
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E61">
         <v>14</v>
@@ -2065,10 +1603,10 @@
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E62">
         <v>16</v>
@@ -2080,10 +1618,10 @@
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E63">
         <v>18</v>
@@ -2095,10 +1633,10 @@
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E64">
         <v>20</v>
@@ -2110,10 +1648,10 @@
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E65">
         <v>22</v>
@@ -2125,10 +1663,10 @@
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E66">
         <v>24</v>
@@ -2140,10 +1678,10 @@
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E67">
         <v>26</v>
@@ -2155,10 +1693,10 @@
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E68">
         <v>28</v>
@@ -2170,10 +1708,10 @@
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E69">
         <v>30</v>
@@ -2185,10 +1723,10 @@
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E70">
         <v>32</v>
@@ -2200,10 +1738,10 @@
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E71">
         <v>34</v>
@@ -2215,10 +1753,10 @@
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E72">
         <v>36</v>
@@ -2230,10 +1768,10 @@
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E73">
         <v>38</v>
@@ -2245,10 +1783,10 @@
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E74">
         <v>40</v>
@@ -2260,10 +1798,10 @@
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>43</v>
@@ -2275,10 +1813,10 @@
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E76">
         <v>44</v>
@@ -2296,10 +1834,10 @@
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2311,10 +1849,10 @@
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -2326,10 +1864,10 @@
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -2341,10 +1879,10 @@
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E81">
         <v>7</v>
@@ -2356,10 +1894,10 @@
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="D82" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E82">
         <v>9</v>
@@ -2371,10 +1909,10 @@
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E83">
         <v>11</v>
@@ -2386,10 +1924,10 @@
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E84">
         <v>13</v>
@@ -2401,10 +1939,10 @@
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E85">
         <v>15</v>
@@ -2416,10 +1954,10 @@
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="D86" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E86">
         <v>17</v>
@@ -2431,10 +1969,10 @@
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="D87" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E87">
         <v>19</v>
@@ -2446,10 +1984,10 @@
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E88">
         <v>21</v>
@@ -2461,10 +1999,10 @@
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E89">
         <v>23</v>
@@ -2476,10 +2014,10 @@
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>25</v>
@@ -2491,10 +2029,10 @@
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="D91" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E91">
         <v>27</v>
@@ -2506,10 +2044,10 @@
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="D92" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E92">
         <v>29</v>
@@ -2521,10 +2059,10 @@
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E93">
         <v>31</v>
@@ -2536,10 +2074,10 @@
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="D94" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E94">
         <v>33</v>
@@ -2551,10 +2089,10 @@
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E95">
         <v>35</v>
@@ -2566,10 +2104,10 @@
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E96">
         <v>37</v>
@@ -2581,10 +2119,10 @@
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D97" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E97">
         <v>39</v>
@@ -2596,10 +2134,10 @@
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="D98" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E98">
         <v>41</v>
@@ -2611,10 +2149,10 @@
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="D99" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="E99">
         <v>42</v>
@@ -2632,7 +2170,7 @@
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="G102" s="9"/>
     </row>
@@ -2641,10 +2179,10 @@
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -2656,10 +2194,10 @@
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="D105" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -2671,10 +2209,10 @@
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="D106" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -2686,10 +2224,10 @@
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="D107" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E107">
         <v>7</v>
@@ -2701,10 +2239,10 @@
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="D108" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E108">
         <v>9</v>
@@ -2716,10 +2254,10 @@
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="D109" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E109">
         <v>11</v>
@@ -2731,10 +2269,10 @@
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="D110" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -2746,10 +2284,10 @@
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="D111" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E111">
         <v>15</v>
@@ -2764,10 +2302,10 @@
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -2779,10 +2317,10 @@
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="D114" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -2794,10 +2332,10 @@
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="D115" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E115">
         <v>6</v>
@@ -2809,10 +2347,10 @@
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="D116" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E116">
         <v>8</v>
@@ -2824,10 +2362,10 @@
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="D117" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E117">
         <v>10</v>
@@ -2839,10 +2377,10 @@
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="D118" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E118">
         <v>12</v>
@@ -2854,10 +2392,10 @@
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="D119" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E119">
         <v>14</v>
@@ -2869,10 +2407,10 @@
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D120" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="E120">
         <v>16</v>
@@ -2890,7 +2428,7 @@
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="G123" s="9"/>
     </row>
@@ -2899,10 +2437,10 @@
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="D125" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -2914,10 +2452,10 @@
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="D126" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -2929,10 +2467,10 @@
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="D127" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E127">
         <v>5</v>
@@ -2944,10 +2482,10 @@
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="D128" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E128">
         <v>7</v>
@@ -2959,10 +2497,10 @@
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E129">
         <v>9</v>
@@ -2974,10 +2512,10 @@
     </row>
     <row r="130" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
         <v>54</v>
-      </c>
-      <c r="D130" t="s">
-        <v>212</v>
       </c>
       <c r="E130">
         <v>11</v>
@@ -2989,10 +2527,10 @@
     </row>
     <row r="131" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E131">
         <v>13</v>
@@ -3004,10 +2542,10 @@
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
         <v>54</v>
-      </c>
-      <c r="D132" t="s">
-        <v>212</v>
       </c>
       <c r="E132">
         <v>15</v>
@@ -3022,10 +2560,10 @@
     </row>
     <row r="134" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="D134" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E134">
         <v>2</v>
@@ -3037,10 +2575,10 @@
     </row>
     <row r="135" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E135">
         <v>4</v>
@@ -3052,10 +2590,10 @@
     </row>
     <row r="136" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E136">
         <v>6</v>
@@ -3067,10 +2605,10 @@
     </row>
     <row r="137" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E137">
         <v>8</v>
@@ -3082,10 +2620,10 @@
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="D138" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E138">
         <v>10</v>
@@ -3097,10 +2635,10 @@
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="D139" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E139">
         <v>12</v>
@@ -3112,10 +2650,10 @@
     </row>
     <row r="140" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="D140" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E140">
         <v>14</v>
@@ -3127,10 +2665,10 @@
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="D141" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E141">
         <v>16</v>
@@ -3161,18 +2699,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7102AE0-9EDA-45EA-AA7E-44B4DE442113}">
   <dimension ref="D3:H163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82:G83"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -3183,10 +2721,10 @@
     </row>
     <row r="4" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -3197,10 +2735,10 @@
     </row>
     <row r="5" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -3211,7 +2749,7 @@
     </row>
     <row r="6" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D6" s="4" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <f>SUBTOTAL(3,E4:E5)</f>
@@ -3220,10 +2758,10 @@
     </row>
     <row r="7" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -3234,10 +2772,10 @@
     </row>
     <row r="8" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -3248,10 +2786,10 @@
     </row>
     <row r="9" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -3262,7 +2800,7 @@
     </row>
     <row r="10" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D10" s="4" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <f>SUBTOTAL(3,E7:E9)</f>
@@ -3271,10 +2809,10 @@
     </row>
     <row r="11" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3285,10 +2823,10 @@
     </row>
     <row r="12" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -3299,7 +2837,7 @@
     </row>
     <row r="13" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D13" s="4" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <f>SUBTOTAL(3,E11:E12)</f>
@@ -3308,10 +2846,10 @@
     </row>
     <row r="14" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -3322,10 +2860,10 @@
     </row>
     <row r="15" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -3336,7 +2874,7 @@
     </row>
     <row r="16" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D16" s="4" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <f>SUBTOTAL(3,E14:E15)</f>
@@ -3345,10 +2883,10 @@
     </row>
     <row r="17" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G17">
         <v>28</v>
@@ -3359,10 +2897,10 @@
     </row>
     <row r="18" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G18">
         <v>28</v>
@@ -3373,7 +2911,7 @@
     </row>
     <row r="19" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D19" s="4" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <f>SUBTOTAL(3,E17:E18)</f>
@@ -3382,10 +2920,10 @@
     </row>
     <row r="20" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <v>26</v>
@@ -3396,10 +2934,10 @@
     </row>
     <row r="21" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -3410,7 +2948,7 @@
     </row>
     <row r="22" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D22" s="4" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <f>SUBTOTAL(3,E20:E21)</f>
@@ -3419,10 +2957,10 @@
     </row>
     <row r="23" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>34</v>
@@ -3433,10 +2971,10 @@
     </row>
     <row r="24" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G24">
         <v>34</v>
@@ -3447,7 +2985,7 @@
     </row>
     <row r="25" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D25" s="4" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <f>SUBTOTAL(3,E23:E24)</f>
@@ -3456,10 +2994,10 @@
     </row>
     <row r="26" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <v>32</v>
@@ -3470,10 +3008,10 @@
     </row>
     <row r="27" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G27">
         <v>32</v>
@@ -3484,7 +3022,7 @@
     </row>
     <row r="28" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D28" s="4" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <f>SUBTOTAL(3,E26:E27)</f>
@@ -3493,10 +3031,10 @@
     </row>
     <row r="29" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>22</v>
@@ -3507,10 +3045,10 @@
     </row>
     <row r="30" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G30">
         <v>22</v>
@@ -3521,7 +3059,7 @@
     </row>
     <row r="31" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D31" s="4" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <f>SUBTOTAL(3,E29:E30)</f>
@@ -3530,10 +3068,10 @@
     </row>
     <row r="32" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -3544,10 +3082,10 @@
     </row>
     <row r="33" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G33">
         <v>20</v>
@@ -3558,7 +3096,7 @@
     </row>
     <row r="34" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D34" s="4" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="E34">
         <f>SUBTOTAL(3,E32:E33)</f>
@@ -3567,10 +3105,10 @@
     </row>
     <row r="35" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>16</v>
@@ -3581,10 +3119,10 @@
     </row>
     <row r="36" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G36">
         <v>16</v>
@@ -3595,7 +3133,7 @@
     </row>
     <row r="37" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D37" s="4" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="E37">
         <f>SUBTOTAL(3,E35:E36)</f>
@@ -3604,10 +3142,10 @@
     </row>
     <row r="38" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>14</v>
@@ -3618,10 +3156,10 @@
     </row>
     <row r="39" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <v>14</v>
@@ -3632,7 +3170,7 @@
     </row>
     <row r="40" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D40" s="4" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <f>SUBTOTAL(3,E38:E39)</f>
@@ -3641,10 +3179,10 @@
     </row>
     <row r="41" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G41">
         <v>40</v>
@@ -3655,10 +3193,10 @@
     </row>
     <row r="42" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G42">
         <v>40</v>
@@ -3669,7 +3207,7 @@
     </row>
     <row r="43" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D43" s="4" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <f>SUBTOTAL(3,E41:E42)</f>
@@ -3678,10 +3216,10 @@
     </row>
     <row r="44" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G44">
         <v>38</v>
@@ -3692,10 +3230,10 @@
     </row>
     <row r="45" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G45">
         <v>38</v>
@@ -3706,7 +3244,7 @@
     </row>
     <row r="46" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D46" s="4" t="s">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="E46">
         <f>SUBTOTAL(3,E44:E45)</f>
@@ -3715,10 +3253,10 @@
     </row>
     <row r="47" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G47" s="3">
         <v>41</v>
@@ -3729,10 +3267,10 @@
     </row>
     <row r="48" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G48" s="3">
         <v>42</v>
@@ -3743,10 +3281,10 @@
     </row>
     <row r="49" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G49" s="3">
         <v>45</v>
@@ -3757,10 +3295,10 @@
     </row>
     <row r="50" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G50" s="6">
         <v>41</v>
@@ -3771,10 +3309,10 @@
     </row>
     <row r="51" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G51" s="6">
         <v>42</v>
@@ -3785,10 +3323,10 @@
     </row>
     <row r="52" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G52" s="1">
         <v>14</v>
@@ -3799,10 +3337,10 @@
     </row>
     <row r="53" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G53" s="1">
         <v>16</v>
@@ -3813,7 +3351,7 @@
     </row>
     <row r="54" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D54" s="4" t="s">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="E54">
         <f>SUBTOTAL(3,E47:E53)</f>
@@ -3822,10 +3360,10 @@
     </row>
     <row r="55" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G55">
         <v>19</v>
@@ -3836,10 +3374,10 @@
     </row>
     <row r="56" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G56">
         <v>19</v>
@@ -3850,10 +3388,10 @@
     </row>
     <row r="57" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -3864,7 +3402,7 @@
     </row>
     <row r="58" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D58" s="4" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="E58">
         <f>SUBTOTAL(3,E55:E57)</f>
@@ -3873,10 +3411,10 @@
     </row>
     <row r="59" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
@@ -3887,10 +3425,10 @@
     </row>
     <row r="60" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G60" s="3">
         <v>3</v>
@@ -3901,10 +3439,10 @@
     </row>
     <row r="61" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="F61" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G61" s="6">
         <v>1</v>
@@ -3915,10 +3453,10 @@
     </row>
     <row r="62" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G62" s="6">
         <v>3</v>
@@ -3929,10 +3467,10 @@
     </row>
     <row r="63" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G63" s="1">
         <v>10</v>
@@ -3943,10 +3481,10 @@
     </row>
     <row r="64" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G64" s="1">
         <v>12</v>
@@ -3957,7 +3495,7 @@
     </row>
     <row r="65" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D65" s="4" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="E65">
         <f>SUBTOTAL(3,E59:E64)</f>
@@ -3966,10 +3504,10 @@
     </row>
     <row r="66" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -3980,10 +3518,10 @@
     </row>
     <row r="67" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -3994,7 +3532,7 @@
     </row>
     <row r="68" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D68" s="4" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="E68">
         <f>SUBTOTAL(3,E66:E67)</f>
@@ -4003,10 +3541,10 @@
     </row>
     <row r="69" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G69">
         <v>18</v>
@@ -4017,10 +3555,10 @@
     </row>
     <row r="70" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G70">
         <v>24</v>
@@ -4031,10 +3569,10 @@
     </row>
     <row r="71" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G71">
         <v>30</v>
@@ -4045,10 +3583,10 @@
     </row>
     <row r="72" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G72">
         <v>36</v>
@@ -4059,10 +3597,10 @@
     </row>
     <row r="73" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G73" s="3">
         <v>43</v>
@@ -4073,10 +3611,10 @@
     </row>
     <row r="74" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G74" s="3">
         <v>44</v>
@@ -4087,10 +3625,10 @@
     </row>
     <row r="75" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G75" s="3">
         <v>46</v>
@@ -4101,10 +3639,10 @@
     </row>
     <row r="76" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G76">
         <v>18</v>
@@ -4115,10 +3653,10 @@
     </row>
     <row r="77" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G77">
         <v>24</v>
@@ -4129,10 +3667,10 @@
     </row>
     <row r="78" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -4143,10 +3681,10 @@
     </row>
     <row r="79" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G79">
         <v>36</v>
@@ -4157,10 +3695,10 @@
     </row>
     <row r="80" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G80" s="6">
         <v>43</v>
@@ -4171,10 +3709,10 @@
     </row>
     <row r="81" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G81" s="6">
         <v>44</v>
@@ -4185,10 +3723,10 @@
     </row>
     <row r="82" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -4199,10 +3737,10 @@
     </row>
     <row r="83" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -4213,10 +3751,10 @@
     </row>
     <row r="84" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
         <v>54</v>
-      </c>
-      <c r="F84" t="s">
-        <v>212</v>
       </c>
       <c r="G84">
         <v>11</v>
@@ -4227,10 +3765,10 @@
     </row>
     <row r="85" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
         <v>54</v>
-      </c>
-      <c r="F85" t="s">
-        <v>212</v>
       </c>
       <c r="G85">
         <v>15</v>
@@ -4241,7 +3779,7 @@
     </row>
     <row r="86" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D86" s="4" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <f>SUBTOTAL(3,E69:E85)</f>
@@ -4250,10 +3788,10 @@
     </row>
     <row r="87" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G87">
         <v>12</v>
@@ -4264,10 +3802,10 @@
     </row>
     <row r="88" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G88">
         <v>12</v>
@@ -4278,7 +3816,7 @@
     </row>
     <row r="89" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D89" s="4" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="E89">
         <f>SUBTOTAL(3,E87:E88)</f>
@@ -4287,10 +3825,10 @@
     </row>
     <row r="90" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -4301,10 +3839,10 @@
     </row>
     <row r="91" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -4315,10 +3853,10 @@
     </row>
     <row r="92" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E92" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G92">
         <v>13</v>
@@ -4329,7 +3867,7 @@
     </row>
     <row r="93" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D93" s="4" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="E93">
         <f>SUBTOTAL(3,E90:E92)</f>
@@ -4338,10 +3876,10 @@
     </row>
     <row r="94" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E94" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G94">
         <v>15</v>
@@ -4352,10 +3890,10 @@
     </row>
     <row r="95" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E95" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G95">
         <v>15</v>
@@ -4366,10 +3904,10 @@
     </row>
     <row r="96" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E96" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -4380,7 +3918,7 @@
     </row>
     <row r="97" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D97" s="4" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E97">
         <f>SUBTOTAL(3,E94:E96)</f>
@@ -4389,10 +3927,10 @@
     </row>
     <row r="98" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E98" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G98">
         <v>17</v>
@@ -4403,10 +3941,10 @@
     </row>
     <row r="99" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E99" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G99">
         <v>17</v>
@@ -4417,10 +3955,10 @@
     </row>
     <row r="100" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E100" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -4431,7 +3969,7 @@
     </row>
     <row r="101" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D101" s="4" t="s">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="E101">
         <f>SUBTOTAL(3,E98:E100)</f>
@@ -4440,10 +3978,10 @@
     </row>
     <row r="102" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E102" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G102">
         <v>31</v>
@@ -4454,10 +3992,10 @@
     </row>
     <row r="103" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E103" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G103">
         <v>31</v>
@@ -4468,10 +4006,10 @@
     </row>
     <row r="104" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E104" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G104">
         <v>12</v>
@@ -4482,7 +4020,7 @@
     </row>
     <row r="105" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D105" s="4" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="E105">
         <f>SUBTOTAL(3,E102:E104)</f>
@@ -4491,10 +4029,10 @@
     </row>
     <row r="106" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E106" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="F106" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G106">
         <v>29</v>
@@ -4505,10 +4043,10 @@
     </row>
     <row r="107" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E107" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G107">
         <v>29</v>
@@ -4519,10 +4057,10 @@
     </row>
     <row r="108" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E108" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G108">
         <v>11</v>
@@ -4533,7 +4071,7 @@
     </row>
     <row r="109" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D109" s="4" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="E109">
         <f>SUBTOTAL(3,E106:E108)</f>
@@ -4542,10 +4080,10 @@
     </row>
     <row r="110" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E110" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G110">
         <v>33</v>
@@ -4556,10 +4094,10 @@
     </row>
     <row r="111" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E111" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G111">
         <v>33</v>
@@ -4570,10 +4108,10 @@
     </row>
     <row r="112" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E112" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G112">
         <v>13</v>
@@ -4584,7 +4122,7 @@
     </row>
     <row r="113" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D113" s="4" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="E113">
         <f>SUBTOTAL(3,E110:E112)</f>
@@ -4593,10 +4131,10 @@
     </row>
     <row r="114" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E114" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G114">
         <v>23</v>
@@ -4607,10 +4145,10 @@
     </row>
     <row r="115" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E115" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G115">
         <v>23</v>
@@ -4621,10 +4159,10 @@
     </row>
     <row r="116" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E116" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G116">
         <v>8</v>
@@ -4635,7 +4173,7 @@
     </row>
     <row r="117" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D117" s="4" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="E117">
         <f>SUBTOTAL(3,E114:E116)</f>
@@ -4644,10 +4182,10 @@
     </row>
     <row r="118" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E118" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G118">
         <v>25</v>
@@ -4658,10 +4196,10 @@
     </row>
     <row r="119" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E119" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G119">
         <v>25</v>
@@ -4672,10 +4210,10 @@
     </row>
     <row r="120" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E120" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G120">
         <v>9</v>
@@ -4686,7 +4224,7 @@
     </row>
     <row r="121" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D121" s="4" t="s">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="E121">
         <f>SUBTOTAL(3,E118:E120)</f>
@@ -4695,10 +4233,10 @@
     </row>
     <row r="122" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E122" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="F122" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G122">
         <v>27</v>
@@ -4709,10 +4247,10 @@
     </row>
     <row r="123" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E123" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G123">
         <v>27</v>
@@ -4723,10 +4261,10 @@
     </row>
     <row r="124" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E124" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="F124" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G124">
         <v>10</v>
@@ -4737,7 +4275,7 @@
     </row>
     <row r="125" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D125" s="4" t="s">
-        <v>242</v>
+        <v>84</v>
       </c>
       <c r="E125">
         <f>SUBTOTAL(3,E122:E124)</f>
@@ -4746,10 +4284,10 @@
     </row>
     <row r="126" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E126" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="F126" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G126">
         <v>21</v>
@@ -4760,10 +4298,10 @@
     </row>
     <row r="127" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E127" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G127">
         <v>21</v>
@@ -4774,10 +4312,10 @@
     </row>
     <row r="128" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E128" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G128">
         <v>7</v>
@@ -4788,7 +4326,7 @@
     </row>
     <row r="129" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D129" s="4" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="E129">
         <f>SUBTOTAL(3,E126:E128)</f>
@@ -4797,10 +4335,10 @@
     </row>
     <row r="130" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E130" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G130">
         <v>39</v>
@@ -4811,10 +4349,10 @@
     </row>
     <row r="131" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E131" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="F131" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G131">
         <v>39</v>
@@ -4825,10 +4363,10 @@
     </row>
     <row r="132" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E132" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="F132" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G132">
         <v>16</v>
@@ -4839,7 +4377,7 @@
     </row>
     <row r="133" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D133" s="4" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="E133">
         <f>SUBTOTAL(3,E130:E132)</f>
@@ -4848,10 +4386,10 @@
     </row>
     <row r="134" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E134" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="F134" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G134">
         <v>35</v>
@@ -4862,10 +4400,10 @@
     </row>
     <row r="135" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E135" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G135">
         <v>35</v>
@@ -4876,10 +4414,10 @@
     </row>
     <row r="136" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E136" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="F136" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G136">
         <v>14</v>
@@ -4890,7 +4428,7 @@
     </row>
     <row r="137" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D137" s="4" t="s">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="E137">
         <f>SUBTOTAL(3,E134:E136)</f>
@@ -4899,10 +4437,10 @@
     </row>
     <row r="138" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E138" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G138">
         <v>11</v>
@@ -4913,10 +4451,10 @@
     </row>
     <row r="139" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E139" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G139">
         <v>11</v>
@@ -4927,10 +4465,10 @@
     </row>
     <row r="140" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E140" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G140">
         <v>5</v>
@@ -4941,7 +4479,7 @@
     </row>
     <row r="141" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D141" s="4" t="s">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="E141">
         <f>SUBTOTAL(3,E138:E140)</f>
@@ -4950,10 +4488,10 @@
     </row>
     <row r="142" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E142" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="F142" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G142">
         <v>13</v>
@@ -4964,10 +4502,10 @@
     </row>
     <row r="143" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E143" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G143">
         <v>13</v>
@@ -4978,10 +4516,10 @@
     </row>
     <row r="144" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E144" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -4992,7 +4530,7 @@
     </row>
     <row r="145" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D145" s="4" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="E145">
         <f>SUBTOTAL(3,E142:E144)</f>
@@ -5001,10 +4539,10 @@
     </row>
     <row r="146" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E146" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G146">
         <v>10</v>
@@ -5015,10 +4553,10 @@
     </row>
     <row r="147" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E147" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G147">
         <v>10</v>
@@ -5029,10 +4567,10 @@
     </row>
     <row r="148" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E148" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G148">
         <v>6</v>
@@ -5043,7 +4581,7 @@
     </row>
     <row r="149" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D149" s="4" t="s">
-        <v>248</v>
+        <v>90</v>
       </c>
       <c r="E149">
         <f>SUBTOTAL(3,E146:E148)</f>
@@ -5052,10 +4590,10 @@
     </row>
     <row r="150" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E150" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G150">
         <v>6</v>
@@ -5066,10 +4604,10 @@
     </row>
     <row r="151" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E151" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G151">
         <v>6</v>
@@ -5080,10 +4618,10 @@
     </row>
     <row r="152" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E152" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="G152">
         <v>9</v>
@@ -5094,7 +4632,7 @@
     </row>
     <row r="153" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D153" s="4" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="E153">
         <f>SUBTOTAL(3,E150:E152)</f>
@@ -5103,10 +4641,10 @@
     </row>
     <row r="154" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E154" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="F154" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G154">
         <v>37</v>
@@ -5117,10 +4655,10 @@
     </row>
     <row r="155" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E155" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="F155" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="G155">
         <v>37</v>
@@ -5131,10 +4669,10 @@
     </row>
     <row r="156" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E156" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="F156" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G156">
         <v>15</v>
@@ -5145,7 +4683,7 @@
     </row>
     <row r="157" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D157" s="4" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="E157">
         <f>SUBTOTAL(3,E154:E156)</f>
@@ -5154,10 +4692,10 @@
     </row>
     <row r="158" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E158" t="s">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="F158" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -5168,10 +4706,10 @@
     </row>
     <row r="159" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E159" t="s">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="F159" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G159">
         <v>5</v>
@@ -5182,10 +4720,10 @@
     </row>
     <row r="160" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E160" t="s">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="F160" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G160">
         <v>4</v>
@@ -5196,10 +4734,10 @@
     </row>
     <row r="161" spans="4:8" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="E161" t="s">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="F161" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G161">
         <v>6</v>
@@ -5210,7 +4748,7 @@
     </row>
     <row r="162" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D162" s="4" t="s">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="E162">
         <f>SUBTOTAL(3,E158:E161)</f>
@@ -5219,7 +4757,7 @@
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D163" s="4" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="E163">
         <f>SUBTOTAL(3,E4:E161)</f>
@@ -5239,15 +4777,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C556FAC3-F7B5-4E45-8A3A-199152B521E9}">
   <dimension ref="D2:AE142"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B90" sqref="A90:XFD90"/>
+    <sheetView topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E2" s="5">
         <v>87</v>
@@ -13140,13 +12678,13 @@
     </row>
     <row r="97" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E97" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="G97" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="5:7" x14ac:dyDescent="0.2">
@@ -13409,1901 +12947,2423 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BC8465-F3D7-41A7-B456-7E8A12C7B66E}">
-  <dimension ref="C1:J106"/>
+  <dimension ref="C1:W128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F55" sqref="F55:F106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:23" x14ac:dyDescent="0.2">
       <c r="F1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C2" s="3"/>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="V2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="str">
+        <f>CONCATENATE(V$2,Q3,W$2,R3,V$2,G$1)</f>
+        <v>"J1101_1",</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ref="V4:V71" si="0">CONCATENATE(V$2,Q4,W$2,R4,V$2,G$1)</f>
+        <v>"J1101_2",</v>
+      </c>
+    </row>
+    <row r="5" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_3",</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="P6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_4",</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_5",</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_6",</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_7",</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="P10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_8",</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="P11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_9",</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="P12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_10",</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>11</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_11",</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>12</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_12",</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="P15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>13</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_13",</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="P16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <v>14</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_14",</v>
+      </c>
+    </row>
+    <row r="17" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="P17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>48</v>
+      </c>
+      <c r="R17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>15</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_15",</v>
+      </c>
+    </row>
+    <row r="18" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="P18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>48</v>
+      </c>
+      <c r="R18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <v>16</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_16",</v>
+      </c>
+    </row>
+    <row r="19" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="P19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>17</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_17",</v>
+      </c>
+    </row>
+    <row r="20" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="P20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>18</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_18",</v>
+      </c>
+    </row>
+    <row r="21" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="P21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>48</v>
+      </c>
+      <c r="R21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>19</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_19",</v>
+      </c>
+    </row>
+    <row r="22" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>20</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_20",</v>
+      </c>
+    </row>
+    <row r="23" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="P23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>48</v>
+      </c>
+      <c r="R23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>21</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_21",</v>
+      </c>
+    </row>
+    <row r="24" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="P24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>48</v>
+      </c>
+      <c r="R24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <v>22</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_22",</v>
+      </c>
+    </row>
+    <row r="25" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="P25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <v>23</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_23",</v>
+      </c>
+    </row>
+    <row r="26" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="P26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>48</v>
+      </c>
+      <c r="R26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>24</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_24",</v>
+      </c>
+    </row>
+    <row r="27" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+      <c r="P27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>25</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_25",</v>
+      </c>
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+      <c r="P28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>48</v>
+      </c>
+      <c r="R28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>26</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_26",</v>
+      </c>
+    </row>
+    <row r="29" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="P29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>48</v>
+      </c>
+      <c r="R29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <v>27</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_27",</v>
+      </c>
+    </row>
+    <row r="30" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="P30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>48</v>
+      </c>
+      <c r="R30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <v>28</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_28",</v>
+      </c>
+    </row>
+    <row r="31" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="P31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>48</v>
+      </c>
+      <c r="R31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>29</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_29",</v>
+      </c>
+    </row>
+    <row r="32" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="P32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>48</v>
+      </c>
+      <c r="R32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>30</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_30",</v>
+      </c>
+    </row>
+    <row r="33" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="P33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>48</v>
+      </c>
+      <c r="R33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <v>31</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_31",</v>
+      </c>
+    </row>
+    <row r="34" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="P34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>48</v>
+      </c>
+      <c r="R34">
+        <v>32</v>
+      </c>
+      <c r="T34">
+        <v>32</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_32",</v>
+      </c>
+    </row>
+    <row r="35" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+      <c r="P35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>48</v>
+      </c>
+      <c r="R35">
+        <v>33</v>
+      </c>
+      <c r="T35">
+        <v>33</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_33",</v>
+      </c>
+    </row>
+    <row r="36" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="P36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>48</v>
+      </c>
+      <c r="R36">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>34</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_34",</v>
+      </c>
+    </row>
+    <row r="37" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="P37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>48</v>
+      </c>
+      <c r="R37">
+        <v>35</v>
+      </c>
+      <c r="T37">
+        <v>35</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_35",</v>
+      </c>
+    </row>
+    <row r="38" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
+      <c r="P38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>48</v>
+      </c>
+      <c r="R38">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>36</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_36",</v>
+      </c>
+    </row>
+    <row r="39" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="P39" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>48</v>
+      </c>
+      <c r="R39">
+        <v>37</v>
+      </c>
+      <c r="T39">
+        <v>37</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_37",</v>
+      </c>
+    </row>
+    <row r="40" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="P40" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>48</v>
+      </c>
+      <c r="R40">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>38</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_38",</v>
+      </c>
+    </row>
+    <row r="41" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="P41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>48</v>
+      </c>
+      <c r="R41">
+        <v>39</v>
+      </c>
+      <c r="T41">
+        <v>39</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_39",</v>
+      </c>
+    </row>
+    <row r="42" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+      <c r="P42" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>48</v>
+      </c>
+      <c r="R42">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>40</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_40",</v>
+      </c>
+    </row>
+    <row r="43" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="P43" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>48</v>
+      </c>
+      <c r="R43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>41</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_41",</v>
+      </c>
+    </row>
+    <row r="44" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="P44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>48</v>
+      </c>
+      <c r="R44">
+        <v>42</v>
+      </c>
+      <c r="T44">
+        <v>42</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_42",</v>
+      </c>
+    </row>
+    <row r="45" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="P45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>48</v>
+      </c>
+      <c r="R45">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>43</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_43",</v>
+      </c>
+    </row>
+    <row r="46" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="P46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>48</v>
+      </c>
+      <c r="R46">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>44</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1101_44",</v>
+      </c>
+    </row>
+    <row r="47" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="P47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>50</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>45</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_1",</v>
+      </c>
+    </row>
+    <row r="48" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="P48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>50</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>46</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_2",</v>
+      </c>
+    </row>
+    <row r="49" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="P49" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="7">
+      <c r="Q49" t="s">
+        <v>50</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="T49">
+        <v>47</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_3",</v>
+      </c>
+    </row>
+    <row r="50" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="P50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>50</v>
+      </c>
+      <c r="R50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>48</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_4",</v>
+      </c>
+    </row>
+    <row r="51" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="P51" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>50</v>
+      </c>
+      <c r="R51">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <v>49</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_5",</v>
+      </c>
+    </row>
+    <row r="52" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
+      <c r="P52" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>50</v>
+      </c>
+      <c r="R52">
+        <v>6</v>
+      </c>
+      <c r="T52">
+        <v>50</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_6",</v>
+      </c>
+    </row>
+    <row r="53" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+      <c r="P53" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>50</v>
+      </c>
+      <c r="R53">
+        <v>7</v>
+      </c>
+      <c r="T53">
+        <v>51</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_7",</v>
+      </c>
+    </row>
+    <row r="54" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
+      <c r="P54" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>50</v>
+      </c>
+      <c r="R54">
+        <v>8</v>
+      </c>
+      <c r="T54">
+        <v>52</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_8",</v>
+      </c>
+    </row>
+    <row r="55" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E55" s="7"/>
+      <c r="P55" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>50</v>
+      </c>
+      <c r="R55">
+        <v>9</v>
+      </c>
+      <c r="T55">
+        <v>53</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_9",</v>
+      </c>
+    </row>
+    <row r="56" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E56" s="7"/>
+      <c r="P56" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>50</v>
+      </c>
+      <c r="R56">
+        <v>10</v>
+      </c>
+      <c r="T56">
+        <v>54</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_10",</v>
+      </c>
+    </row>
+    <row r="57" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E57" s="7"/>
+      <c r="P57" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>50</v>
+      </c>
+      <c r="R57">
+        <v>11</v>
+      </c>
+      <c r="T57">
+        <v>55</v>
+      </c>
+      <c r="V57" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_11",</v>
+      </c>
+    </row>
+    <row r="58" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E58" s="7"/>
+      <c r="P58" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>50</v>
+      </c>
+      <c r="R58">
+        <v>12</v>
+      </c>
+      <c r="T58">
+        <v>56</v>
+      </c>
+      <c r="V58" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_12",</v>
+      </c>
+    </row>
+    <row r="59" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E59" s="7"/>
+      <c r="P59" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>50</v>
+      </c>
+      <c r="R59">
+        <v>13</v>
+      </c>
+      <c r="T59">
+        <v>57</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_13",</v>
+      </c>
+    </row>
+    <row r="60" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E60" s="7"/>
+      <c r="P60" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>50</v>
+      </c>
+      <c r="R60">
+        <v>14</v>
+      </c>
+      <c r="T60">
+        <v>58</v>
+      </c>
+      <c r="V60" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_14",</v>
+      </c>
+    </row>
+    <row r="61" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E61" s="7"/>
+      <c r="P61" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>50</v>
+      </c>
+      <c r="R61">
+        <v>15</v>
+      </c>
+      <c r="T61">
+        <v>59</v>
+      </c>
+      <c r="V61" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_15",</v>
+      </c>
+    </row>
+    <row r="62" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E62" s="7"/>
+      <c r="P62" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>50</v>
+      </c>
+      <c r="R62">
+        <v>16</v>
+      </c>
+      <c r="T62">
+        <v>60</v>
+      </c>
+      <c r="V62" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1104_16",</v>
+      </c>
+    </row>
+    <row r="63" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E63" s="7"/>
+      <c r="R63" t="s">
+        <v>96</v>
+      </c>
+      <c r="V63" t="str">
+        <f t="shared" si="0"/>
+        <v>"_NC",</v>
+      </c>
+    </row>
+    <row r="64" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E64" s="7"/>
+      <c r="R64" t="s">
+        <v>96</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" si="0"/>
+        <v>"_NC",</v>
+      </c>
+    </row>
+    <row r="65" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E65" s="7"/>
+      <c r="R65" t="s">
+        <v>96</v>
+      </c>
+      <c r="V65" t="str">
+        <f t="shared" si="0"/>
+        <v>"_NC",</v>
+      </c>
+    </row>
+    <row r="66" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E66" s="7"/>
+      <c r="R66" t="s">
+        <v>96</v>
+      </c>
+      <c r="V66" t="str">
+        <f t="shared" si="0"/>
+        <v>"_NC",</v>
+      </c>
+    </row>
+    <row r="67" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E67" s="7"/>
+      <c r="P67" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>54</v>
+      </c>
+      <c r="R67">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J34" si="0">CONCATENATE($F$1,D3,C3,$F$1,$G$1)</f>
-        <v>"J201_1",</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="T67">
+        <v>65</v>
+      </c>
+      <c r="V67" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1102_1",</v>
+      </c>
+    </row>
+    <row r="68" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E68" s="7"/>
+      <c r="P68" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>54</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>66</v>
+      </c>
+      <c r="V68" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1102_2",</v>
+      </c>
+    </row>
+    <row r="69" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E69" s="7"/>
+      <c r="P69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>54</v>
+      </c>
+      <c r="R69">
+        <v>3</v>
+      </c>
+      <c r="T69">
+        <v>67</v>
+      </c>
+      <c r="V69" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1102_3",</v>
+      </c>
+    </row>
+    <row r="70" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E70" s="7"/>
+      <c r="P70" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>54</v>
+      </c>
+      <c r="R70">
+        <v>4</v>
+      </c>
+      <c r="T70">
+        <v>68</v>
+      </c>
+      <c r="V70" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1102_4",</v>
+      </c>
+    </row>
+    <row r="71" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E71" s="7"/>
+      <c r="P71" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>54</v>
+      </c>
+      <c r="R71">
+        <v>5</v>
+      </c>
+      <c r="T71">
+        <v>69</v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="0"/>
+        <v>"J1102_5",</v>
+      </c>
+    </row>
+    <row r="72" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E72" s="7"/>
+      <c r="P72" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>54</v>
+      </c>
+      <c r="R72">
+        <v>6</v>
+      </c>
+      <c r="T72">
+        <v>70</v>
+      </c>
+      <c r="V72" t="str">
+        <f t="shared" ref="V72:V128" si="1">CONCATENATE(V$2,Q72,W$2,R72,V$2,G$1)</f>
+        <v>"J1102_6",</v>
+      </c>
+    </row>
+    <row r="73" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E73" s="7"/>
+      <c r="P73" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>54</v>
+      </c>
+      <c r="R73">
+        <v>7</v>
+      </c>
+      <c r="T73">
+        <v>71</v>
+      </c>
+      <c r="V73" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1102_7",</v>
+      </c>
+    </row>
+    <row r="74" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E74" s="7"/>
+      <c r="P74" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>54</v>
+      </c>
+      <c r="R74">
+        <v>8</v>
+      </c>
+      <c r="T74">
+        <v>72</v>
+      </c>
+      <c r="V74" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1102_8",</v>
+      </c>
+    </row>
+    <row r="75" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E75" s="7"/>
+      <c r="P75" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>54</v>
+      </c>
+      <c r="R75">
+        <v>9</v>
+      </c>
+      <c r="T75">
+        <v>73</v>
+      </c>
+      <c r="V75" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1102_9",</v>
+      </c>
+    </row>
+    <row r="76" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E76" s="7"/>
+      <c r="P76" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>54</v>
+      </c>
+      <c r="R76">
+        <v>10</v>
+      </c>
+      <c r="T76">
+        <v>74</v>
+      </c>
+      <c r="V76" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1102_10",</v>
+      </c>
+    </row>
+    <row r="77" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E77" s="7"/>
+      <c r="P77" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>54</v>
+      </c>
+      <c r="R77">
+        <v>11</v>
+      </c>
+      <c r="T77">
+        <v>75</v>
+      </c>
+      <c r="V77" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1102_11",</v>
+      </c>
+    </row>
+    <row r="78" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E78" s="7"/>
+      <c r="P78" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>54</v>
+      </c>
+      <c r="R78">
+        <v>12</v>
+      </c>
+      <c r="T78">
+        <v>76</v>
+      </c>
+      <c r="V78" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1102_12",</v>
+      </c>
+    </row>
+    <row r="79" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E79" s="7"/>
+      <c r="P79" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>54</v>
+      </c>
+      <c r="R79">
+        <v>13</v>
+      </c>
+      <c r="T79">
+        <v>77</v>
+      </c>
+      <c r="V79" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1102_13",</v>
+      </c>
+    </row>
+    <row r="80" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E80" s="7"/>
+      <c r="P80" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>54</v>
+      </c>
+      <c r="R80">
+        <v>14</v>
+      </c>
+      <c r="T80">
+        <v>78</v>
+      </c>
+      <c r="V80" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1102_14",</v>
+      </c>
+    </row>
+    <row r="81" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E81" s="7"/>
+      <c r="P81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>54</v>
+      </c>
+      <c r="R81">
+        <v>15</v>
+      </c>
+      <c r="T81">
+        <v>79</v>
+      </c>
+      <c r="V81" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1102_15",</v>
+      </c>
+    </row>
+    <row r="82" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E82" s="7"/>
+      <c r="P82" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>54</v>
+      </c>
+      <c r="R82">
+        <v>16</v>
+      </c>
+      <c r="T82">
+        <v>80</v>
+      </c>
+      <c r="V82" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1102_16",</v>
+      </c>
+    </row>
+    <row r="83" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E83" s="7"/>
+      <c r="P83" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>7</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>81</v>
+      </c>
+      <c r="V83" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_1",</v>
+      </c>
+    </row>
+    <row r="84" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E84" s="7"/>
+      <c r="P84" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>7</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>82</v>
+      </c>
+      <c r="V84" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_2",</v>
+      </c>
+    </row>
+    <row r="85" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E85" s="7"/>
+      <c r="P85" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>7</v>
+      </c>
+      <c r="R85">
+        <v>3</v>
+      </c>
+      <c r="T85">
+        <v>83</v>
+      </c>
+      <c r="V85" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_3",</v>
+      </c>
+    </row>
+    <row r="86" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E86" s="7"/>
+      <c r="P86" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>7</v>
+      </c>
+      <c r="R86">
+        <v>4</v>
+      </c>
+      <c r="T86">
+        <v>84</v>
+      </c>
+      <c r="V86" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_4",</v>
+      </c>
+    </row>
+    <row r="87" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E87" s="7"/>
+      <c r="P87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>7</v>
+      </c>
+      <c r="R87">
+        <v>5</v>
+      </c>
+      <c r="T87">
+        <v>85</v>
+      </c>
+      <c r="V87" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_5",</v>
+      </c>
+    </row>
+    <row r="88" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E88" s="7"/>
+      <c r="P88" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>7</v>
+      </c>
+      <c r="R88">
+        <v>6</v>
+      </c>
+      <c r="T88">
+        <v>86</v>
+      </c>
+      <c r="V88" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_6",</v>
+      </c>
+    </row>
+    <row r="89" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E89" s="7"/>
+      <c r="P89" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>7</v>
+      </c>
+      <c r="R89">
+        <v>7</v>
+      </c>
+      <c r="T89">
+        <v>87</v>
+      </c>
+      <c r="V89" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_7",</v>
+      </c>
+    </row>
+    <row r="90" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E90" s="7"/>
+      <c r="P90" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>7</v>
+      </c>
+      <c r="R90">
+        <v>8</v>
+      </c>
+      <c r="T90">
+        <v>88</v>
+      </c>
+      <c r="V90" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_8",</v>
+      </c>
+    </row>
+    <row r="91" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E91" s="7"/>
+      <c r="P91" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>7</v>
+      </c>
+      <c r="R91">
+        <v>9</v>
+      </c>
+      <c r="T91">
+        <v>89</v>
+      </c>
+      <c r="V91" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_9",</v>
+      </c>
+    </row>
+    <row r="92" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E92" s="7"/>
+      <c r="P92" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>7</v>
+      </c>
+      <c r="R92">
+        <v>10</v>
+      </c>
+      <c r="T92">
+        <v>90</v>
+      </c>
+      <c r="V92" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_10",</v>
+      </c>
+    </row>
+    <row r="93" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E93" s="7"/>
+      <c r="P93" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>7</v>
+      </c>
+      <c r="R93">
+        <v>11</v>
+      </c>
+      <c r="T93">
+        <v>91</v>
+      </c>
+      <c r="V93" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_11",</v>
+      </c>
+    </row>
+    <row r="94" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E94" s="7"/>
+      <c r="P94" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>7</v>
+      </c>
+      <c r="R94">
+        <v>12</v>
+      </c>
+      <c r="T94">
+        <v>92</v>
+      </c>
+      <c r="V94" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_12",</v>
+      </c>
+    </row>
+    <row r="95" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E95" s="7"/>
+      <c r="P95" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>7</v>
+      </c>
+      <c r="R95">
+        <v>13</v>
+      </c>
+      <c r="T95">
+        <v>93</v>
+      </c>
+      <c r="V95" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_13",</v>
+      </c>
+    </row>
+    <row r="96" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E96" s="7"/>
+      <c r="P96" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>7</v>
+      </c>
+      <c r="R96">
+        <v>14</v>
+      </c>
+      <c r="T96">
+        <v>94</v>
+      </c>
+      <c r="V96" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_14",</v>
+      </c>
+    </row>
+    <row r="97" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E97" s="7"/>
+      <c r="P97" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>7</v>
+      </c>
+      <c r="R97">
+        <v>15</v>
+      </c>
+      <c r="T97">
+        <v>95</v>
+      </c>
+      <c r="V97" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_15",</v>
+      </c>
+    </row>
+    <row r="98" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E98" s="7"/>
+      <c r="P98" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>7</v>
+      </c>
+      <c r="R98">
+        <v>16</v>
+      </c>
+      <c r="T98">
+        <v>96</v>
+      </c>
+      <c r="V98" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_16",</v>
+      </c>
+    </row>
+    <row r="99" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E99" s="7"/>
+      <c r="P99" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>7</v>
+      </c>
+      <c r="R99">
+        <v>17</v>
+      </c>
+      <c r="T99">
+        <v>97</v>
+      </c>
+      <c r="V99" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_17",</v>
+      </c>
+    </row>
+    <row r="100" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E100" s="7"/>
+      <c r="P100" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>7</v>
+      </c>
+      <c r="R100">
+        <v>18</v>
+      </c>
+      <c r="T100">
+        <v>98</v>
+      </c>
+      <c r="V100" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_18",</v>
+      </c>
+    </row>
+    <row r="101" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E101" s="7"/>
+      <c r="P101" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>7</v>
+      </c>
+      <c r="R101">
+        <v>19</v>
+      </c>
+      <c r="T101">
+        <v>99</v>
+      </c>
+      <c r="V101" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_19",</v>
+      </c>
+    </row>
+    <row r="102" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E102" s="7"/>
+      <c r="P102" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>7</v>
+      </c>
+      <c r="R102">
+        <v>20</v>
+      </c>
+      <c r="T102">
+        <v>100</v>
+      </c>
+      <c r="V102" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_20",</v>
+      </c>
+    </row>
+    <row r="103" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E103" s="7"/>
+      <c r="P103" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>7</v>
+      </c>
+      <c r="R103">
+        <v>21</v>
+      </c>
+      <c r="T103">
+        <v>101</v>
+      </c>
+      <c r="V103" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_21",</v>
+      </c>
+    </row>
+    <row r="104" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E104" s="7"/>
+      <c r="P104" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>7</v>
+      </c>
+      <c r="R104">
+        <v>22</v>
+      </c>
+      <c r="T104">
+        <v>102</v>
+      </c>
+      <c r="V104" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_22",</v>
+      </c>
+    </row>
+    <row r="105" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E105" s="7"/>
+      <c r="P105" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>7</v>
+      </c>
+      <c r="R105">
+        <v>23</v>
+      </c>
+      <c r="T105">
+        <v>103</v>
+      </c>
+      <c r="V105" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_23",</v>
+      </c>
+    </row>
+    <row r="106" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E106" s="7"/>
+      <c r="P106" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>7</v>
+      </c>
+      <c r="R106">
+        <v>24</v>
+      </c>
+      <c r="T106">
+        <v>104</v>
+      </c>
+      <c r="V106" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_24",</v>
+      </c>
+    </row>
+    <row r="107" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="P107" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>7</v>
+      </c>
+      <c r="R107">
+        <v>25</v>
+      </c>
+      <c r="T107">
+        <v>105</v>
+      </c>
+      <c r="V107" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_25",</v>
+      </c>
+    </row>
+    <row r="108" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="P108" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>7</v>
+      </c>
+      <c r="R108">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_2",</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_3",</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="T108">
+        <v>106</v>
+      </c>
+      <c r="V108" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_26",</v>
+      </c>
+    </row>
+    <row r="109" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="P109" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>7</v>
+      </c>
+      <c r="R109">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_4",</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_5",</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="T109">
+        <v>107</v>
+      </c>
+      <c r="V109" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_27",</v>
+      </c>
+    </row>
+    <row r="110" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="P110" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>7</v>
+      </c>
+      <c r="R110">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="7">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_6",</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="7">
-        <v>7</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_7",</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="T110">
+        <v>108</v>
+      </c>
+      <c r="V110" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_28",</v>
+      </c>
+    </row>
+    <row r="111" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="P111" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>7</v>
+      </c>
+      <c r="R111">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="7">
-        <v>8</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_8",</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="7">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_9",</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="T111">
+        <v>109</v>
+      </c>
+      <c r="V111" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_29",</v>
+      </c>
+    </row>
+    <row r="112" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="P112" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>7</v>
+      </c>
+      <c r="R112">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="7">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_10",</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="7">
-        <v>11</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_11",</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+      <c r="T112">
+        <v>110</v>
+      </c>
+      <c r="V112" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_30",</v>
+      </c>
+    </row>
+    <row r="113" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P113" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>7</v>
+      </c>
+      <c r="R113">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="7">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_12",</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="7">
-        <v>13</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_13",</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+      <c r="T113">
+        <v>111</v>
+      </c>
+      <c r="V113" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_31",</v>
+      </c>
+    </row>
+    <row r="114" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P114" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>7</v>
+      </c>
+      <c r="R114">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="7">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_14",</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="7">
-        <v>15</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_15",</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="T114">
+        <v>112</v>
+      </c>
+      <c r="V114" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_32",</v>
+      </c>
+    </row>
+    <row r="115" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P115" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>7</v>
+      </c>
+      <c r="R115">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="7">
-        <v>16</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_16",</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="7">
-        <v>17</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_17",</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="T115">
+        <v>113</v>
+      </c>
+      <c r="V115" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_33",</v>
+      </c>
+    </row>
+    <row r="116" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P116" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>7</v>
+      </c>
+      <c r="R116">
         <v>34</v>
       </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="7">
-        <v>18</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_18",</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="7">
-        <v>19</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_19",</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+      <c r="T116">
+        <v>114</v>
+      </c>
+      <c r="V116" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_34",</v>
+      </c>
+    </row>
+    <row r="117" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P117" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>7</v>
+      </c>
+      <c r="R117">
         <v>35</v>
       </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="7">
-        <v>20</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_20",</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="7">
-        <v>21</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_21",</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+      <c r="T117">
+        <v>115</v>
+      </c>
+      <c r="V117" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_35",</v>
+      </c>
+    </row>
+    <row r="118" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P118" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>7</v>
+      </c>
+      <c r="R118">
         <v>36</v>
       </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="7">
-        <v>22</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_22",</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="7">
-        <v>23</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_23",</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="T118">
+        <v>116</v>
+      </c>
+      <c r="V118" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_36",</v>
+      </c>
+    </row>
+    <row r="119" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P119" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>7</v>
+      </c>
+      <c r="R119">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="7">
-        <v>24</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_24",</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="T119">
+        <v>117</v>
+      </c>
+      <c r="V119" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_37",</v>
+      </c>
+    </row>
+    <row r="120" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P120" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_25",</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+      <c r="Q120" t="s">
+        <v>7</v>
+      </c>
+      <c r="R120">
         <v>38</v>
       </c>
-      <c r="D28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="T120">
+        <v>118</v>
+      </c>
+      <c r="V120" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_38",</v>
+      </c>
+    </row>
+    <row r="121" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P121" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>7</v>
+      </c>
+      <c r="R121">
+        <v>39</v>
+      </c>
+      <c r="T121">
+        <v>119</v>
+      </c>
+      <c r="V121" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_39",</v>
+      </c>
+    </row>
+    <row r="122" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P122" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_26",</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="7">
-        <v>27</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_27",</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="7">
-        <v>28</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_28",</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="7">
-        <v>29</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_29",</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+      <c r="Q122" t="s">
+        <v>7</v>
+      </c>
+      <c r="R122">
         <v>40</v>
       </c>
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="7">
-        <v>30</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_30",</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="7">
-        <v>31</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_31",</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+      <c r="T122">
+        <v>120</v>
+      </c>
+      <c r="V122" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_40",</v>
+      </c>
+    </row>
+    <row r="123" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P123" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>7</v>
+      </c>
+      <c r="R123">
         <v>41</v>
       </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="7">
-        <v>32</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="0"/>
-        <v>"J201_32",</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="7">
-        <v>33</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" ref="J35:J66" si="1">CONCATENATE($F$1,D35,C35,$F$1,$G$1)</f>
-        <v>"J201_33",</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+      <c r="T123">
+        <v>121</v>
+      </c>
+      <c r="V123" t="str">
+        <f t="shared" si="1"/>
+        <v>"J1103_41",</v>
+      </c>
+    </row>
+    <row r="124" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P124" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>7</v>
+      </c>
+      <c r="R124">
         <v>42</v>
       </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="7">
-        <v>34</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J36" t="str">
+      <c r="T124">
+        <v>122</v>
+      </c>
+      <c r="V124" t="str">
         <f t="shared" si="1"/>
-        <v>"J201_34",</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="7">
-        <v>35</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J37" t="str">
+        <v>"J1103_42",</v>
+      </c>
+    </row>
+    <row r="125" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P125" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>7</v>
+      </c>
+      <c r="R125">
+        <v>45</v>
+      </c>
+      <c r="T125">
+        <v>123</v>
+      </c>
+      <c r="V125" t="str">
         <f t="shared" si="1"/>
-        <v>"J201_35",</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+        <v>"J1103_45",</v>
+      </c>
+    </row>
+    <row r="126" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P126" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>7</v>
+      </c>
+      <c r="R126">
         <v>43</v>
       </c>
-      <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="7">
-        <v>36</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J38" t="str">
+      <c r="T126">
+        <v>124</v>
+      </c>
+      <c r="V126" t="str">
         <f t="shared" si="1"/>
-        <v>"J201_36",</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="7">
-        <v>37</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J39" t="str">
+        <v>"J1103_43",</v>
+      </c>
+    </row>
+    <row r="127" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P127" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>7</v>
+      </c>
+      <c r="R127">
+        <v>44</v>
+      </c>
+      <c r="T127">
+        <v>125</v>
+      </c>
+      <c r="V127" t="str">
         <f t="shared" si="1"/>
-        <v>"J201_37",</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="7">
-        <v>38</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40" t="str">
+        <v>"J1103_44",</v>
+      </c>
+    </row>
+    <row r="128" spans="16:22" x14ac:dyDescent="0.2">
+      <c r="P128" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>7</v>
+      </c>
+      <c r="R128">
+        <v>46</v>
+      </c>
+      <c r="T128">
+        <v>126</v>
+      </c>
+      <c r="V128" t="str">
         <f t="shared" si="1"/>
-        <v>"J201_38",</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="7">
-        <v>39</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_39",</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="7">
-        <v>40</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_40",</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="7">
-        <v>41</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_41",</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="7">
-        <v>42</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_42",</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="7">
-        <v>43</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_43",</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="7">
-        <v>44</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_44",</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="7">
-        <v>45</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_45",</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="7">
-        <v>46</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_46",</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="7">
-        <v>47</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_47",</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="7">
-        <v>48</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_48",</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="7">
-        <v>49</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_49",</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="7">
-        <v>50</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_50",</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="7">
-        <v>51</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_51",</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="7">
-        <v>52</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="1"/>
-        <v>"J201_52",</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="7">
-        <v>65</v>
-      </c>
-      <c r="F55" t="s">
-        <v>137</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="1"/>
-        <v>"J202_50",</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="7">
-        <v>66</v>
-      </c>
-      <c r="F56" t="s">
-        <v>163</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="1"/>
-        <v>"J202_49",</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="7">
-        <v>67</v>
-      </c>
-      <c r="F57" t="s">
-        <v>136</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="1"/>
-        <v>"J202_48",</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="7">
-        <v>68</v>
-      </c>
-      <c r="F58" t="s">
-        <v>162</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="1"/>
-        <v>"J202_47",</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="7">
-        <v>69</v>
-      </c>
-      <c r="F59" t="s">
-        <v>135</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="1"/>
-        <v>"J202_46",</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="7">
-        <v>70</v>
-      </c>
-      <c r="F60" t="s">
-        <v>161</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="1"/>
-        <v>"J202_45",</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="7">
-        <v>71</v>
-      </c>
-      <c r="F61" t="s">
-        <v>134</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="1"/>
-        <v>"J202_44",</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62" s="7">
-        <v>72</v>
-      </c>
-      <c r="F62" t="s">
-        <v>160</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="1"/>
-        <v>"J202_43",</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63" s="7">
-        <v>73</v>
-      </c>
-      <c r="F63" t="s">
-        <v>133</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="1"/>
-        <v>"J202_42",</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="7">
-        <v>74</v>
-      </c>
-      <c r="F64" t="s">
-        <v>159</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="1"/>
-        <v>"J202_41",</v>
-      </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="7">
-        <v>75</v>
-      </c>
-      <c r="F65" t="s">
-        <v>132</v>
-      </c>
-      <c r="J65" t="str">
-        <f t="shared" si="1"/>
-        <v>"J202_40",</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" t="s">
-        <v>53</v>
-      </c>
-      <c r="E66" s="7">
-        <v>76</v>
-      </c>
-      <c r="F66" t="s">
-        <v>158</v>
-      </c>
-      <c r="J66" t="str">
-        <f t="shared" si="1"/>
-        <v>"J202_39",</v>
-      </c>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67" s="7">
-        <v>77</v>
-      </c>
-      <c r="F67" t="s">
-        <v>131</v>
-      </c>
-      <c r="J67" t="str">
-        <f t="shared" ref="J67:J98" si="2">CONCATENATE($F$1,D67,C67,$F$1,$G$1)</f>
-        <v>"J202_38",</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" s="7">
-        <v>78</v>
-      </c>
-      <c r="F68" t="s">
-        <v>157</v>
-      </c>
-      <c r="J68" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_37",</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" t="s">
-        <v>53</v>
-      </c>
-      <c r="E69" s="7">
-        <v>79</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
-      </c>
-      <c r="J69" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_36",</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" s="7">
-        <v>80</v>
-      </c>
-      <c r="F70" t="s">
-        <v>156</v>
-      </c>
-      <c r="J70" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_35",</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" t="s">
-        <v>53</v>
-      </c>
-      <c r="E71" s="7">
-        <v>81</v>
-      </c>
-      <c r="F71" t="s">
-        <v>129</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_34",</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" s="7">
-        <v>82</v>
-      </c>
-      <c r="F72" t="s">
-        <v>155</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_33",</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" t="s">
-        <v>53</v>
-      </c>
-      <c r="E73" s="7">
-        <v>83</v>
-      </c>
-      <c r="F73" t="s">
-        <v>128</v>
-      </c>
-      <c r="J73" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_32",</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" t="s">
-        <v>53</v>
-      </c>
-      <c r="E74" s="7">
-        <v>84</v>
-      </c>
-      <c r="F74" t="s">
-        <v>154</v>
-      </c>
-      <c r="J74" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_31",</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" t="s">
-        <v>53</v>
-      </c>
-      <c r="E75" s="7">
-        <v>85</v>
-      </c>
-      <c r="F75" t="s">
-        <v>127</v>
-      </c>
-      <c r="J75" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_30",</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" s="7">
-        <v>86</v>
-      </c>
-      <c r="F76" t="s">
-        <v>153</v>
-      </c>
-      <c r="J76" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_29",</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>39</v>
-      </c>
-      <c r="D77" t="s">
-        <v>53</v>
-      </c>
-      <c r="E77" s="7">
-        <v>87</v>
-      </c>
-      <c r="F77" t="s">
-        <v>126</v>
-      </c>
-      <c r="J77" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_28",</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="7">
-        <v>88</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
-      </c>
-      <c r="J78" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_27",</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
-        <v>38</v>
-      </c>
-      <c r="D79" t="s">
-        <v>53</v>
-      </c>
-      <c r="E79" s="7">
-        <v>89</v>
-      </c>
-      <c r="F79" t="s">
-        <v>125</v>
-      </c>
-      <c r="J79" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_26",</v>
-      </c>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" t="s">
-        <v>53</v>
-      </c>
-      <c r="E80" s="7">
-        <v>90</v>
-      </c>
-      <c r="F80" t="s">
-        <v>151</v>
-      </c>
-      <c r="J80" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_25",</v>
-      </c>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" t="s">
-        <v>53</v>
-      </c>
-      <c r="E81" s="7">
-        <v>91</v>
-      </c>
-      <c r="F81" t="s">
-        <v>124</v>
-      </c>
-      <c r="J81" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_24",</v>
-      </c>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s">
-        <v>53</v>
-      </c>
-      <c r="E82" s="7">
-        <v>92</v>
-      </c>
-      <c r="F82" t="s">
-        <v>150</v>
-      </c>
-      <c r="J82" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_23",</v>
-      </c>
-    </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" s="7">
-        <v>93</v>
-      </c>
-      <c r="F83" t="s">
-        <v>123</v>
-      </c>
-      <c r="J83" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_22",</v>
-      </c>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" t="s">
-        <v>53</v>
-      </c>
-      <c r="E84" s="7">
-        <v>94</v>
-      </c>
-      <c r="F84" t="s">
-        <v>149</v>
-      </c>
-      <c r="J84" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_21",</v>
-      </c>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C85" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" t="s">
-        <v>53</v>
-      </c>
-      <c r="E85" s="7">
-        <v>95</v>
-      </c>
-      <c r="F85" t="s">
-        <v>122</v>
-      </c>
-      <c r="J85" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_20",</v>
-      </c>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" t="s">
-        <v>53</v>
-      </c>
-      <c r="E86" s="7">
-        <v>96</v>
-      </c>
-      <c r="F86" t="s">
-        <v>148</v>
-      </c>
-      <c r="J86" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_19",</v>
-      </c>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
-        <v>34</v>
-      </c>
-      <c r="D87" t="s">
-        <v>53</v>
-      </c>
-      <c r="E87" s="7">
-        <v>97</v>
-      </c>
-      <c r="F87" t="s">
-        <v>121</v>
-      </c>
-      <c r="J87" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_18",</v>
-      </c>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" t="s">
-        <v>53</v>
-      </c>
-      <c r="E88" s="7">
-        <v>98</v>
-      </c>
-      <c r="F88" t="s">
-        <v>147</v>
-      </c>
-      <c r="J88" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_17",</v>
-      </c>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C89" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" t="s">
-        <v>53</v>
-      </c>
-      <c r="E89" s="7">
-        <v>99</v>
-      </c>
-      <c r="F89" t="s">
-        <v>120</v>
-      </c>
-      <c r="J89" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_16",</v>
-      </c>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C90" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E90" s="7">
-        <v>100</v>
-      </c>
-      <c r="F90" t="s">
-        <v>146</v>
-      </c>
-      <c r="J90" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_15",</v>
-      </c>
-    </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C91" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" s="7">
-        <v>101</v>
-      </c>
-      <c r="F91" t="s">
-        <v>119</v>
-      </c>
-      <c r="J91" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_14",</v>
-      </c>
-    </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" t="s">
-        <v>53</v>
-      </c>
-      <c r="E92" s="7">
-        <v>102</v>
-      </c>
-      <c r="F92" t="s">
-        <v>145</v>
-      </c>
-      <c r="J92" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_13",</v>
-      </c>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C93" t="s">
-        <v>31</v>
-      </c>
-      <c r="D93" t="s">
-        <v>53</v>
-      </c>
-      <c r="E93" s="7">
-        <v>103</v>
-      </c>
-      <c r="F93" t="s">
-        <v>118</v>
-      </c>
-      <c r="J93" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_12",</v>
-      </c>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E94" s="7">
-        <v>104</v>
-      </c>
-      <c r="F94" t="s">
-        <v>144</v>
-      </c>
-      <c r="J94" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_11",</v>
-      </c>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
-        <v>30</v>
-      </c>
-      <c r="D95" t="s">
-        <v>53</v>
-      </c>
-      <c r="E95" s="7">
-        <v>105</v>
-      </c>
-      <c r="F95" t="s">
-        <v>117</v>
-      </c>
-      <c r="J95" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_10",</v>
-      </c>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" t="s">
-        <v>53</v>
-      </c>
-      <c r="E96" s="7">
-        <v>106</v>
-      </c>
-      <c r="F96" t="s">
-        <v>143</v>
-      </c>
-      <c r="J96" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_9",</v>
-      </c>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
-        <v>29</v>
-      </c>
-      <c r="D97" t="s">
-        <v>53</v>
-      </c>
-      <c r="E97" s="7">
-        <v>107</v>
-      </c>
-      <c r="F97" t="s">
-        <v>116</v>
-      </c>
-      <c r="J97" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_8",</v>
-      </c>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" t="s">
-        <v>53</v>
-      </c>
-      <c r="E98" s="7">
-        <v>108</v>
-      </c>
-      <c r="F98" t="s">
-        <v>142</v>
-      </c>
-      <c r="J98" t="str">
-        <f t="shared" si="2"/>
-        <v>"J202_7",</v>
-      </c>
-    </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" t="s">
-        <v>53</v>
-      </c>
-      <c r="E99" s="7">
-        <v>109</v>
-      </c>
-      <c r="F99" t="s">
-        <v>115</v>
-      </c>
-      <c r="J99" t="str">
-        <f t="shared" ref="J99:J106" si="3">CONCATENATE($F$1,D99,C99,$F$1,$G$1)</f>
-        <v>"J202_6",</v>
-      </c>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C100" t="s">
-        <v>2</v>
-      </c>
-      <c r="D100" t="s">
-        <v>53</v>
-      </c>
-      <c r="E100" s="7">
-        <v>110</v>
-      </c>
-      <c r="F100" t="s">
-        <v>141</v>
-      </c>
-      <c r="J100" t="str">
-        <f t="shared" si="3"/>
-        <v>"J202_5",</v>
-      </c>
-    </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" t="s">
-        <v>53</v>
-      </c>
-      <c r="E101" s="7">
-        <v>111</v>
-      </c>
-      <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="J101" t="str">
-        <f t="shared" si="3"/>
-        <v>"J202_4",</v>
-      </c>
-    </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C102" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" t="s">
-        <v>53</v>
-      </c>
-      <c r="E102" s="7">
-        <v>112</v>
-      </c>
-      <c r="F102" t="s">
-        <v>140</v>
-      </c>
-      <c r="J102" t="str">
-        <f t="shared" si="3"/>
-        <v>"J202_3",</v>
-      </c>
-    </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C103" t="s">
-        <v>26</v>
-      </c>
-      <c r="D103" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" s="7">
-        <v>113</v>
-      </c>
-      <c r="F103" t="s">
-        <v>113</v>
-      </c>
-      <c r="J103" t="str">
-        <f t="shared" si="3"/>
-        <v>"J202_2",</v>
-      </c>
-    </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C104" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" t="s">
-        <v>53</v>
-      </c>
-      <c r="E104" s="7">
-        <v>114</v>
-      </c>
-      <c r="F104" t="s">
-        <v>139</v>
-      </c>
-      <c r="J104" t="str">
-        <f t="shared" si="3"/>
-        <v>"J202_1",</v>
-      </c>
-    </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C105" t="s">
-        <v>51</v>
-      </c>
-      <c r="D105" t="s">
-        <v>53</v>
-      </c>
-      <c r="E105" s="7">
-        <v>115</v>
-      </c>
-      <c r="F105" t="s">
-        <v>138</v>
-      </c>
-      <c r="J105" t="str">
-        <f t="shared" si="3"/>
-        <v>"J202_52",</v>
-      </c>
-    </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C106" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" t="s">
-        <v>53</v>
-      </c>
-      <c r="E106" s="7">
-        <v>116</v>
-      </c>
-      <c r="F106" t="s">
-        <v>164</v>
-      </c>
-      <c r="J106" t="str">
-        <f t="shared" si="3"/>
-        <v>"J202_51",</v>
+        <v>"J1103_46",</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F106">
-    <sortCondition ref="E3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P3:T128">
+    <sortCondition ref="T3:T128"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
